--- a/Template_Projeto.xlsx
+++ b/Template_Projeto.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="108">
   <si>
     <t>CAMPO</t>
   </si>
@@ -527,6 +527,9 @@
   <si>
     <t>cccTela Principal</t>
   </si>
+  <si>
+    <t>SistemaUNI (v2.1)nnn</t>
+  </si>
 </sst>
 </file>
 
@@ -987,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1127,21 +1130,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1160,6 +1148,36 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1175,7 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,28 +1220,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2869,7 +2875,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -2898,29 +2904,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="74" t="s">
+      <c r="B1" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="85" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -3152,41 +3158,41 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="89" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="63" t="s">
         <v>46</v>
       </c>
       <c r="Q2" s="38"/>
@@ -3417,26 +3423,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -3665,22 +3671,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -4407,13 +4413,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A7" s="64">
+      <c r="A7" s="75">
         <v>1</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="59" t="s">
@@ -4661,9 +4667,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="48" t="s">
         <v>60</v>
       </c>
@@ -4919,9 +4925,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="44.1" customHeight="1" thickBot="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="60" t="s">
         <v>62</v>
       </c>
@@ -5415,13 +5421,13 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="48" t="s">
@@ -5669,9 +5675,9 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="48" t="s">
         <v>60</v>
       </c>
@@ -5927,9 +5933,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="39" thickBot="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="48" t="s">
         <v>62</v>
       </c>
@@ -6425,13 +6431,13 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A15" s="64">
+      <c r="A15" s="75">
         <v>3</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -6679,9 +6685,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="48" t="s">
         <v>60</v>
       </c>
@@ -6937,9 +6943,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="48" t="s">
         <v>62</v>
       </c>
@@ -7433,13 +7439,13 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A19" s="64">
+      <c r="A19" s="75">
         <v>4</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -7687,9 +7693,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="48" t="s">
         <v>60</v>
       </c>
@@ -7945,9 +7951,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="73.5" customHeight="1" thickBot="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="48" t="s">
         <v>62</v>
       </c>
@@ -8447,13 +8453,13 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" ht="25.5">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="48" t="s">
@@ -8476,9 +8482,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:242" ht="25.5">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="48" t="s">
         <v>60</v>
       </c>
@@ -8509,9 +8515,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:242" ht="39" thickBot="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="48" t="s">
         <v>62</v>
       </c>
@@ -8555,13 +8561,13 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:242" ht="25.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -8584,9 +8590,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:242" ht="25.5">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="48" t="s">
         <v>60</v>
       </c>
@@ -8617,9 +8623,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:242" ht="39" thickBot="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="48" t="s">
         <v>62</v>
       </c>
@@ -8665,13 +8671,13 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:242" ht="25.5">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -8694,9 +8700,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:242" ht="25.5">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="48" t="s">
         <v>60</v>
       </c>
@@ -8727,9 +8733,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="48" t="s">
         <v>62</v>
       </c>
@@ -8773,13 +8779,13 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="25.5">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="48" t="s">
@@ -8802,9 +8808,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="25.5">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="48" t="s">
         <v>60</v>
       </c>
@@ -8835,9 +8841,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="48" t="s">
         <v>62</v>
       </c>
@@ -8887,13 +8893,13 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="25.5">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -8916,9 +8922,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17" ht="25.5">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="48" t="s">
         <v>60</v>
       </c>
@@ -8949,9 +8955,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="39" thickBot="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="48" t="s">
         <v>62</v>
       </c>
@@ -8995,13 +9001,13 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17" ht="25.5">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="48" t="s">
@@ -9024,9 +9030,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17" ht="25.5">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="48" t="s">
         <v>60</v>
       </c>
@@ -9057,9 +9063,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="39" thickBot="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="48" t="s">
         <v>62</v>
       </c>
@@ -9105,13 +9111,13 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17" ht="25.5">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="48" t="s">
@@ -9134,9 +9140,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17" ht="25.5">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="48" t="s">
         <v>60</v>
       </c>
@@ -9167,9 +9173,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="48" t="s">
         <v>62</v>
       </c>
@@ -9213,13 +9219,13 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17" ht="25.5">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="48" t="s">
@@ -9242,9 +9248,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17" ht="25.5">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="48" t="s">
         <v>60</v>
       </c>
@@ -9275,9 +9281,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="48" t="s">
         <v>62</v>
       </c>
@@ -9327,13 +9333,13 @@
       <c r="Q54" s="58"/>
     </row>
     <row r="55" spans="1:17" ht="25.5">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="48" t="s">
@@ -9356,9 +9362,9 @@
       <c r="Q55" s="38"/>
     </row>
     <row r="56" spans="1:17" ht="25.5">
-      <c r="A56" s="64"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="48" t="s">
         <v>60</v>
       </c>
@@ -9389,9 +9395,9 @@
       <c r="Q56" s="38"/>
     </row>
     <row r="57" spans="1:17" ht="39" thickBot="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="48" t="s">
         <v>62</v>
       </c>
@@ -9435,13 +9441,13 @@
       <c r="Q58" s="58"/>
     </row>
     <row r="59" spans="1:17" ht="25.5">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="65" t="s">
+      <c r="C59" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="48" t="s">
@@ -9464,9 +9470,9 @@
       <c r="Q59" s="38"/>
     </row>
     <row r="60" spans="1:17" ht="25.5">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="48" t="s">
         <v>60</v>
       </c>
@@ -9497,9 +9503,9 @@
       <c r="Q60" s="38"/>
     </row>
     <row r="61" spans="1:17" ht="39" thickBot="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="48" t="s">
         <v>62</v>
       </c>
@@ -9545,13 +9551,13 @@
       <c r="Q62" s="58"/>
     </row>
     <row r="63" spans="1:17" ht="25.5">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D63" s="48" t="s">
@@ -9574,9 +9580,9 @@
       <c r="Q63" s="38"/>
     </row>
     <row r="64" spans="1:17" ht="25.5">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="48" t="s">
         <v>60</v>
       </c>
@@ -9607,9 +9613,9 @@
       <c r="Q64" s="38"/>
     </row>
     <row r="65" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A65" s="64"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="48" t="s">
         <v>62</v>
       </c>
@@ -9653,13 +9659,13 @@
       <c r="Q66" s="58"/>
     </row>
     <row r="67" spans="1:17" ht="25.5">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="C67" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D67" s="48" t="s">
@@ -9682,9 +9688,9 @@
       <c r="Q67" s="38"/>
     </row>
     <row r="68" spans="1:17" ht="25.5">
-      <c r="A68" s="64"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
+      <c r="A68" s="75"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="48" t="s">
         <v>60</v>
       </c>
@@ -9715,9 +9721,9 @@
       <c r="Q68" s="38"/>
     </row>
     <row r="69" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A69" s="64"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
+      <c r="A69" s="75"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="48" t="s">
         <v>62</v>
       </c>
@@ -9767,13 +9773,13 @@
       <c r="Q70" s="58"/>
     </row>
     <row r="71" spans="1:17" ht="25.5">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="65" t="s">
+      <c r="C71" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="48" t="s">
@@ -9796,9 +9802,9 @@
       <c r="Q71" s="38"/>
     </row>
     <row r="72" spans="1:17" ht="25.5">
-      <c r="A72" s="64"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
+      <c r="A72" s="75"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="48" t="s">
         <v>60</v>
       </c>
@@ -9829,9 +9835,9 @@
       <c r="Q72" s="38"/>
     </row>
     <row r="73" spans="1:17" ht="39" thickBot="1">
-      <c r="A73" s="64"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
       <c r="D73" s="48" t="s">
         <v>62</v>
       </c>
@@ -9875,13 +9881,13 @@
       <c r="Q74" s="58"/>
     </row>
     <row r="75" spans="1:17" ht="25.5">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="65" t="s">
+      <c r="B75" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="48" t="s">
@@ -9904,9 +9910,9 @@
       <c r="Q75" s="38"/>
     </row>
     <row r="76" spans="1:17" ht="25.5">
-      <c r="A76" s="64"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="48" t="s">
         <v>60</v>
       </c>
@@ -9937,9 +9943,9 @@
       <c r="Q76" s="38"/>
     </row>
     <row r="77" spans="1:17" ht="39" thickBot="1">
-      <c r="A77" s="64"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
       <c r="D77" s="48" t="s">
         <v>62</v>
       </c>
@@ -9985,13 +9991,13 @@
       <c r="Q78" s="58"/>
     </row>
     <row r="79" spans="1:17" ht="25.5">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="65" t="s">
+      <c r="C79" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D79" s="48" t="s">
@@ -10014,9 +10020,9 @@
       <c r="Q79" s="38"/>
     </row>
     <row r="80" spans="1:17" ht="25.5">
-      <c r="A80" s="64"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="48" t="s">
         <v>60</v>
       </c>
@@ -10047,9 +10053,9 @@
       <c r="Q80" s="38"/>
     </row>
     <row r="81" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A81" s="64"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
+      <c r="A81" s="75"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -10093,13 +10099,13 @@
       <c r="Q82" s="58"/>
     </row>
     <row r="83" spans="1:17" ht="25.5">
-      <c r="A83" s="63" t="s">
+      <c r="A83" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D83" s="48" t="s">
@@ -10122,9 +10128,9 @@
       <c r="Q83" s="38"/>
     </row>
     <row r="84" spans="1:17" ht="25.5">
-      <c r="A84" s="64"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="48" t="s">
         <v>60</v>
       </c>
@@ -10155,9 +10161,9 @@
       <c r="Q84" s="38"/>
     </row>
     <row r="85" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="48" t="s">
         <v>62</v>
       </c>
@@ -10207,13 +10213,13 @@
       <c r="Q86" s="58"/>
     </row>
     <row r="87" spans="1:17" ht="25.5">
-      <c r="A87" s="63" t="s">
+      <c r="A87" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="65" t="s">
+      <c r="B87" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="65" t="s">
+      <c r="C87" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="48" t="s">
@@ -10236,9 +10242,9 @@
       <c r="Q87" s="38"/>
     </row>
     <row r="88" spans="1:17" ht="25.5">
-      <c r="A88" s="64"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="48" t="s">
         <v>60</v>
       </c>
@@ -10269,9 +10275,9 @@
       <c r="Q88" s="38"/>
     </row>
     <row r="89" spans="1:17" ht="39" thickBot="1">
-      <c r="A89" s="64"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="48" t="s">
         <v>62</v>
       </c>
@@ -10315,13 +10321,13 @@
       <c r="Q90" s="58"/>
     </row>
     <row r="91" spans="1:17" ht="25.5">
-      <c r="A91" s="63" t="s">
+      <c r="A91" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="65" t="s">
+      <c r="B91" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="65" t="s">
+      <c r="C91" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="48" t="s">
@@ -10344,9 +10350,9 @@
       <c r="Q91" s="38"/>
     </row>
     <row r="92" spans="1:17" ht="25.5">
-      <c r="A92" s="64"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="48" t="s">
         <v>60</v>
       </c>
@@ -10377,9 +10383,9 @@
       <c r="Q92" s="38"/>
     </row>
     <row r="93" spans="1:17" ht="39" thickBot="1">
-      <c r="A93" s="64"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="48" t="s">
         <v>62</v>
       </c>
@@ -10425,13 +10431,13 @@
       <c r="Q94" s="58"/>
     </row>
     <row r="95" spans="1:17" ht="25.5">
-      <c r="A95" s="63" t="s">
+      <c r="A95" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="65" t="s">
+      <c r="C95" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D95" s="48" t="s">
@@ -10454,9 +10460,9 @@
       <c r="Q95" s="38"/>
     </row>
     <row r="96" spans="1:17" ht="25.5">
-      <c r="A96" s="64"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="48" t="s">
         <v>60</v>
       </c>
@@ -10487,9 +10493,9 @@
       <c r="Q96" s="38"/>
     </row>
     <row r="97" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A97" s="64"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="48" t="s">
         <v>62</v>
       </c>
@@ -10533,13 +10539,13 @@
       <c r="Q98" s="58"/>
     </row>
     <row r="99" spans="1:17" ht="25.5">
-      <c r="A99" s="63" t="s">
+      <c r="A99" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="65" t="s">
+      <c r="C99" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D99" s="48" t="s">
@@ -10562,9 +10568,9 @@
       <c r="Q99" s="38"/>
     </row>
     <row r="100" spans="1:17" ht="25.5">
-      <c r="A100" s="64"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="48" t="s">
         <v>60</v>
       </c>
@@ -10595,9 +10601,9 @@
       <c r="Q100" s="38"/>
     </row>
     <row r="101" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A101" s="64"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="48" t="s">
         <v>62</v>
       </c>
@@ -10648,14 +10654,72 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -10672,72 +10736,14 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9 F23:F25 F39:F41 F55:F57 F71:F73 F87:F89 M23:P25 M39:P41 M55:P57 M71:P73 M87:P89">
@@ -11034,29 +11040,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="74" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="85" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -11288,41 +11294,41 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="89" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="63" t="s">
         <v>46</v>
       </c>
       <c r="Q2" s="38"/>
@@ -11553,26 +11559,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -11801,22 +11807,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -12543,13 +12549,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A7" s="64">
+      <c r="A7" s="75">
         <v>1</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -12797,9 +12803,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="48" t="s">
         <v>60</v>
       </c>
@@ -13055,9 +13061,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="44.1" customHeight="1" thickBot="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="48" t="s">
         <v>62</v>
       </c>
@@ -13551,13 +13557,13 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="48" t="s">
@@ -13805,9 +13811,9 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="48" t="s">
         <v>60</v>
       </c>
@@ -14063,9 +14069,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="39" thickBot="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="48" t="s">
         <v>62</v>
       </c>
@@ -14561,13 +14567,13 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A15" s="64">
+      <c r="A15" s="75">
         <v>3</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -14815,9 +14821,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="48" t="s">
         <v>60</v>
       </c>
@@ -15073,9 +15079,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="48" t="s">
         <v>62</v>
       </c>
@@ -15569,13 +15575,13 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A19" s="64">
+      <c r="A19" s="75">
         <v>4</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -15823,9 +15829,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="48" t="s">
         <v>60</v>
       </c>
@@ -16081,9 +16087,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="73.5" customHeight="1" thickBot="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="48" t="s">
         <v>62</v>
       </c>
@@ -16583,13 +16589,13 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" ht="25.5">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="48" t="s">
@@ -16612,9 +16618,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:242" ht="25.5">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="48" t="s">
         <v>60</v>
       </c>
@@ -16645,9 +16651,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:242" ht="39" thickBot="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="48" t="s">
         <v>62</v>
       </c>
@@ -16691,13 +16697,13 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:242" ht="25.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -16720,9 +16726,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:242" ht="25.5">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="48" t="s">
         <v>60</v>
       </c>
@@ -16753,9 +16759,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:242" ht="39" thickBot="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="48" t="s">
         <v>62</v>
       </c>
@@ -16801,13 +16807,13 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:242" ht="25.5">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -16830,9 +16836,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:242" ht="25.5">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="48" t="s">
         <v>60</v>
       </c>
@@ -16863,9 +16869,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="48" t="s">
         <v>62</v>
       </c>
@@ -16909,13 +16915,13 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="25.5">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="48" t="s">
@@ -16938,9 +16944,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="25.5">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="48" t="s">
         <v>60</v>
       </c>
@@ -16971,9 +16977,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="48" t="s">
         <v>62</v>
       </c>
@@ -17023,13 +17029,13 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="25.5">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -17052,9 +17058,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17" ht="25.5">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="48" t="s">
         <v>60</v>
       </c>
@@ -17085,9 +17091,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="39" thickBot="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="48" t="s">
         <v>62</v>
       </c>
@@ -17131,13 +17137,13 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17" ht="25.5">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="48" t="s">
@@ -17160,9 +17166,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17" ht="25.5">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="48" t="s">
         <v>60</v>
       </c>
@@ -17193,9 +17199,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="39" thickBot="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="48" t="s">
         <v>62</v>
       </c>
@@ -17241,13 +17247,13 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17" ht="25.5">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="48" t="s">
@@ -17270,9 +17276,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17" ht="25.5">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="48" t="s">
         <v>60</v>
       </c>
@@ -17303,9 +17309,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="48" t="s">
         <v>62</v>
       </c>
@@ -17349,13 +17355,13 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17" ht="25.5">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="48" t="s">
@@ -17378,9 +17384,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17" ht="25.5">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="48" t="s">
         <v>60</v>
       </c>
@@ -17411,9 +17417,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="48" t="s">
         <v>62</v>
       </c>
@@ -17463,13 +17469,13 @@
       <c r="Q54" s="58"/>
     </row>
     <row r="55" spans="1:17" ht="25.5">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="48" t="s">
@@ -17492,9 +17498,9 @@
       <c r="Q55" s="38"/>
     </row>
     <row r="56" spans="1:17" ht="25.5">
-      <c r="A56" s="64"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="48" t="s">
         <v>60</v>
       </c>
@@ -17525,9 +17531,9 @@
       <c r="Q56" s="38"/>
     </row>
     <row r="57" spans="1:17" ht="39" thickBot="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="48" t="s">
         <v>62</v>
       </c>
@@ -17571,13 +17577,13 @@
       <c r="Q58" s="58"/>
     </row>
     <row r="59" spans="1:17" ht="25.5">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="65" t="s">
+      <c r="C59" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="48" t="s">
@@ -17600,9 +17606,9 @@
       <c r="Q59" s="38"/>
     </row>
     <row r="60" spans="1:17" ht="25.5">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="48" t="s">
         <v>60</v>
       </c>
@@ -17633,9 +17639,9 @@
       <c r="Q60" s="38"/>
     </row>
     <row r="61" spans="1:17" ht="39" thickBot="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="48" t="s">
         <v>62</v>
       </c>
@@ -17681,13 +17687,13 @@
       <c r="Q62" s="58"/>
     </row>
     <row r="63" spans="1:17" ht="25.5">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D63" s="48" t="s">
@@ -17710,9 +17716,9 @@
       <c r="Q63" s="38"/>
     </row>
     <row r="64" spans="1:17" ht="25.5">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="48" t="s">
         <v>60</v>
       </c>
@@ -17743,9 +17749,9 @@
       <c r="Q64" s="38"/>
     </row>
     <row r="65" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A65" s="64"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="48" t="s">
         <v>62</v>
       </c>
@@ -17789,13 +17795,13 @@
       <c r="Q66" s="58"/>
     </row>
     <row r="67" spans="1:17" ht="25.5">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="C67" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D67" s="48" t="s">
@@ -17818,9 +17824,9 @@
       <c r="Q67" s="38"/>
     </row>
     <row r="68" spans="1:17" ht="25.5">
-      <c r="A68" s="64"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
+      <c r="A68" s="75"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="48" t="s">
         <v>60</v>
       </c>
@@ -17851,9 +17857,9 @@
       <c r="Q68" s="38"/>
     </row>
     <row r="69" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A69" s="64"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
+      <c r="A69" s="75"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="48" t="s">
         <v>62</v>
       </c>
@@ -17903,13 +17909,13 @@
       <c r="Q70" s="58"/>
     </row>
     <row r="71" spans="1:17" ht="25.5">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="65" t="s">
+      <c r="C71" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="48" t="s">
@@ -17932,9 +17938,9 @@
       <c r="Q71" s="38"/>
     </row>
     <row r="72" spans="1:17" ht="25.5">
-      <c r="A72" s="64"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
+      <c r="A72" s="75"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="48" t="s">
         <v>60</v>
       </c>
@@ -17965,9 +17971,9 @@
       <c r="Q72" s="38"/>
     </row>
     <row r="73" spans="1:17" ht="39" thickBot="1">
-      <c r="A73" s="64"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
       <c r="D73" s="48" t="s">
         <v>62</v>
       </c>
@@ -18011,13 +18017,13 @@
       <c r="Q74" s="58"/>
     </row>
     <row r="75" spans="1:17" ht="25.5">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="65" t="s">
+      <c r="B75" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="48" t="s">
@@ -18040,9 +18046,9 @@
       <c r="Q75" s="38"/>
     </row>
     <row r="76" spans="1:17" ht="25.5">
-      <c r="A76" s="64"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="48" t="s">
         <v>60</v>
       </c>
@@ -18073,9 +18079,9 @@
       <c r="Q76" s="38"/>
     </row>
     <row r="77" spans="1:17" ht="39" thickBot="1">
-      <c r="A77" s="64"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
       <c r="D77" s="48" t="s">
         <v>62</v>
       </c>
@@ -18121,13 +18127,13 @@
       <c r="Q78" s="58"/>
     </row>
     <row r="79" spans="1:17" ht="25.5">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="65" t="s">
+      <c r="C79" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D79" s="48" t="s">
@@ -18150,9 +18156,9 @@
       <c r="Q79" s="38"/>
     </row>
     <row r="80" spans="1:17" ht="25.5">
-      <c r="A80" s="64"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="48" t="s">
         <v>60</v>
       </c>
@@ -18183,9 +18189,9 @@
       <c r="Q80" s="38"/>
     </row>
     <row r="81" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A81" s="64"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
+      <c r="A81" s="75"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -18229,13 +18235,13 @@
       <c r="Q82" s="58"/>
     </row>
     <row r="83" spans="1:17" ht="25.5">
-      <c r="A83" s="63" t="s">
+      <c r="A83" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D83" s="48" t="s">
@@ -18258,9 +18264,9 @@
       <c r="Q83" s="38"/>
     </row>
     <row r="84" spans="1:17" ht="25.5">
-      <c r="A84" s="64"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="48" t="s">
         <v>60</v>
       </c>
@@ -18291,9 +18297,9 @@
       <c r="Q84" s="38"/>
     </row>
     <row r="85" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="48" t="s">
         <v>62</v>
       </c>
@@ -18343,13 +18349,13 @@
       <c r="Q86" s="58"/>
     </row>
     <row r="87" spans="1:17" ht="25.5">
-      <c r="A87" s="63" t="s">
+      <c r="A87" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="65" t="s">
+      <c r="B87" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="65" t="s">
+      <c r="C87" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="48" t="s">
@@ -18372,9 +18378,9 @@
       <c r="Q87" s="38"/>
     </row>
     <row r="88" spans="1:17" ht="25.5">
-      <c r="A88" s="64"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="48" t="s">
         <v>60</v>
       </c>
@@ -18405,9 +18411,9 @@
       <c r="Q88" s="38"/>
     </row>
     <row r="89" spans="1:17" ht="39" thickBot="1">
-      <c r="A89" s="64"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="48" t="s">
         <v>62</v>
       </c>
@@ -18451,13 +18457,13 @@
       <c r="Q90" s="58"/>
     </row>
     <row r="91" spans="1:17" ht="25.5">
-      <c r="A91" s="63" t="s">
+      <c r="A91" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="65" t="s">
+      <c r="B91" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="65" t="s">
+      <c r="C91" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="48" t="s">
@@ -18480,9 +18486,9 @@
       <c r="Q91" s="38"/>
     </row>
     <row r="92" spans="1:17" ht="25.5">
-      <c r="A92" s="64"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="48" t="s">
         <v>60</v>
       </c>
@@ -18513,9 +18519,9 @@
       <c r="Q92" s="38"/>
     </row>
     <row r="93" spans="1:17" ht="39" thickBot="1">
-      <c r="A93" s="64"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="48" t="s">
         <v>62</v>
       </c>
@@ -18561,13 +18567,13 @@
       <c r="Q94" s="58"/>
     </row>
     <row r="95" spans="1:17" ht="25.5">
-      <c r="A95" s="63" t="s">
+      <c r="A95" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="65" t="s">
+      <c r="C95" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D95" s="48" t="s">
@@ -18590,9 +18596,9 @@
       <c r="Q95" s="38"/>
     </row>
     <row r="96" spans="1:17" ht="25.5">
-      <c r="A96" s="64"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="48" t="s">
         <v>60</v>
       </c>
@@ -18623,9 +18629,9 @@
       <c r="Q96" s="38"/>
     </row>
     <row r="97" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A97" s="64"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="48" t="s">
         <v>62</v>
       </c>
@@ -18669,13 +18675,13 @@
       <c r="Q98" s="58"/>
     </row>
     <row r="99" spans="1:17" ht="25.5">
-      <c r="A99" s="63" t="s">
+      <c r="A99" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="65" t="s">
+      <c r="C99" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D99" s="48" t="s">
@@ -18698,9 +18704,9 @@
       <c r="Q99" s="38"/>
     </row>
     <row r="100" spans="1:17" ht="25.5">
-      <c r="A100" s="64"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="48" t="s">
         <v>60</v>
       </c>
@@ -18731,9 +18737,9 @@
       <c r="Q100" s="38"/>
     </row>
     <row r="101" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A101" s="64"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="48" t="s">
         <v>62</v>
       </c>
@@ -18784,6 +18790,82 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -18798,82 +18880,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9 F23:F25 F39:F41 F55:F57 F71:F73 F87:F89 M23:P25 M39:P41 M55:P57 M71:P73 M87:P89">
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
@@ -19161,29 +19167,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="74" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="85" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -19415,41 +19421,41 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="71" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="89" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="63" t="s">
         <v>46</v>
       </c>
       <c r="Q2" s="38"/>
@@ -19680,26 +19686,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -19928,22 +19934,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -20670,13 +20676,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A7" s="64">
+      <c r="A7" s="75">
         <v>1</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -20924,9 +20930,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="48" t="s">
         <v>60</v>
       </c>
@@ -21182,9 +21188,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="44.1" customHeight="1" thickBot="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="48" t="s">
         <v>62</v>
       </c>
@@ -21678,13 +21684,13 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="48" t="s">
@@ -21932,9 +21938,9 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="48" t="s">
         <v>60</v>
       </c>
@@ -22190,9 +22196,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="39" thickBot="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="48" t="s">
         <v>62</v>
       </c>
@@ -22688,13 +22694,13 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A15" s="64">
+      <c r="A15" s="75">
         <v>3</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -22942,9 +22948,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="48" t="s">
         <v>60</v>
       </c>
@@ -23200,9 +23206,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="48" t="s">
         <v>62</v>
       </c>
@@ -23696,13 +23702,13 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A19" s="64">
+      <c r="A19" s="75">
         <v>4</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -23950,9 +23956,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="48" t="s">
         <v>60</v>
       </c>
@@ -24208,9 +24214,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="73.5" customHeight="1" thickBot="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="48" t="s">
         <v>62</v>
       </c>
@@ -24710,13 +24716,13 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" ht="25.5">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="48" t="s">
@@ -24739,9 +24745,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:242" ht="25.5">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="48" t="s">
         <v>60</v>
       </c>
@@ -24772,9 +24778,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:242" ht="39" thickBot="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="48" t="s">
         <v>62</v>
       </c>
@@ -24818,13 +24824,13 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:242" ht="25.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -24847,9 +24853,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:242" ht="25.5">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="48" t="s">
         <v>60</v>
       </c>
@@ -24880,9 +24886,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:242" ht="39" thickBot="1">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="48" t="s">
         <v>62</v>
       </c>
@@ -24928,13 +24934,13 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:242" ht="25.5">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -24957,9 +24963,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:242" ht="25.5">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="48" t="s">
         <v>60</v>
       </c>
@@ -24990,9 +24996,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="48" t="s">
         <v>62</v>
       </c>
@@ -25036,13 +25042,13 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="25.5">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="48" t="s">
@@ -25065,9 +25071,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="25.5">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="48" t="s">
         <v>60</v>
       </c>
@@ -25098,9 +25104,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="48" t="s">
         <v>62</v>
       </c>
@@ -25150,13 +25156,13 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="25.5">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -25179,9 +25185,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17" ht="25.5">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="48" t="s">
         <v>60</v>
       </c>
@@ -25212,9 +25218,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="39" thickBot="1">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="48" t="s">
         <v>62</v>
       </c>
@@ -25258,13 +25264,13 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17" ht="25.5">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="48" t="s">
@@ -25287,9 +25293,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17" ht="25.5">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="48" t="s">
         <v>60</v>
       </c>
@@ -25320,9 +25326,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="39" thickBot="1">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="48" t="s">
         <v>62</v>
       </c>
@@ -25368,13 +25374,13 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17" ht="25.5">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="48" t="s">
@@ -25397,9 +25403,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17" ht="25.5">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="48" t="s">
         <v>60</v>
       </c>
@@ -25430,9 +25436,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="48" t="s">
         <v>62</v>
       </c>
@@ -25476,13 +25482,13 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17" ht="25.5">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="48" t="s">
@@ -25505,9 +25511,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17" ht="25.5">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="48" t="s">
         <v>60</v>
       </c>
@@ -25538,9 +25544,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="48" t="s">
         <v>62</v>
       </c>
@@ -25590,13 +25596,13 @@
       <c r="Q54" s="58"/>
     </row>
     <row r="55" spans="1:17" ht="25.5">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="48" t="s">
@@ -25619,9 +25625,9 @@
       <c r="Q55" s="38"/>
     </row>
     <row r="56" spans="1:17" ht="25.5">
-      <c r="A56" s="64"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="48" t="s">
         <v>60</v>
       </c>
@@ -25652,9 +25658,9 @@
       <c r="Q56" s="38"/>
     </row>
     <row r="57" spans="1:17" ht="39" thickBot="1">
-      <c r="A57" s="64"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="48" t="s">
         <v>62</v>
       </c>
@@ -25698,13 +25704,13 @@
       <c r="Q58" s="58"/>
     </row>
     <row r="59" spans="1:17" ht="25.5">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="65" t="s">
+      <c r="C59" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="48" t="s">
@@ -25727,9 +25733,9 @@
       <c r="Q59" s="38"/>
     </row>
     <row r="60" spans="1:17" ht="25.5">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="48" t="s">
         <v>60</v>
       </c>
@@ -25760,9 +25766,9 @@
       <c r="Q60" s="38"/>
     </row>
     <row r="61" spans="1:17" ht="39" thickBot="1">
-      <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="48" t="s">
         <v>62</v>
       </c>
@@ -25808,13 +25814,13 @@
       <c r="Q62" s="58"/>
     </row>
     <row r="63" spans="1:17" ht="25.5">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D63" s="48" t="s">
@@ -25837,9 +25843,9 @@
       <c r="Q63" s="38"/>
     </row>
     <row r="64" spans="1:17" ht="25.5">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="48" t="s">
         <v>60</v>
       </c>
@@ -25870,9 +25876,9 @@
       <c r="Q64" s="38"/>
     </row>
     <row r="65" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A65" s="64"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="48" t="s">
         <v>62</v>
       </c>
@@ -25916,13 +25922,13 @@
       <c r="Q66" s="58"/>
     </row>
     <row r="67" spans="1:17" ht="25.5">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="C67" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D67" s="48" t="s">
@@ -25945,9 +25951,9 @@
       <c r="Q67" s="38"/>
     </row>
     <row r="68" spans="1:17" ht="25.5">
-      <c r="A68" s="64"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
+      <c r="A68" s="75"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="48" t="s">
         <v>60</v>
       </c>
@@ -25978,9 +25984,9 @@
       <c r="Q68" s="38"/>
     </row>
     <row r="69" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A69" s="64"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
+      <c r="A69" s="75"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="48" t="s">
         <v>62</v>
       </c>
@@ -26030,13 +26036,13 @@
       <c r="Q70" s="58"/>
     </row>
     <row r="71" spans="1:17" ht="25.5">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="65" t="s">
+      <c r="C71" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="48" t="s">
@@ -26059,9 +26065,9 @@
       <c r="Q71" s="38"/>
     </row>
     <row r="72" spans="1:17" ht="25.5">
-      <c r="A72" s="64"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
+      <c r="A72" s="75"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="48" t="s">
         <v>60</v>
       </c>
@@ -26092,9 +26098,9 @@
       <c r="Q72" s="38"/>
     </row>
     <row r="73" spans="1:17" ht="39" thickBot="1">
-      <c r="A73" s="64"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
       <c r="D73" s="48" t="s">
         <v>62</v>
       </c>
@@ -26138,13 +26144,13 @@
       <c r="Q74" s="58"/>
     </row>
     <row r="75" spans="1:17" ht="25.5">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="65" t="s">
+      <c r="B75" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="48" t="s">
@@ -26167,9 +26173,9 @@
       <c r="Q75" s="38"/>
     </row>
     <row r="76" spans="1:17" ht="25.5">
-      <c r="A76" s="64"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="48" t="s">
         <v>60</v>
       </c>
@@ -26200,9 +26206,9 @@
       <c r="Q76" s="38"/>
     </row>
     <row r="77" spans="1:17" ht="39" thickBot="1">
-      <c r="A77" s="64"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
       <c r="D77" s="48" t="s">
         <v>62</v>
       </c>
@@ -26248,13 +26254,13 @@
       <c r="Q78" s="58"/>
     </row>
     <row r="79" spans="1:17" ht="25.5">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="65" t="s">
+      <c r="C79" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D79" s="48" t="s">
@@ -26277,9 +26283,9 @@
       <c r="Q79" s="38"/>
     </row>
     <row r="80" spans="1:17" ht="25.5">
-      <c r="A80" s="64"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="48" t="s">
         <v>60</v>
       </c>
@@ -26310,9 +26316,9 @@
       <c r="Q80" s="38"/>
     </row>
     <row r="81" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A81" s="64"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
+      <c r="A81" s="75"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="48" t="s">
         <v>62</v>
       </c>
@@ -26356,13 +26362,13 @@
       <c r="Q82" s="58"/>
     </row>
     <row r="83" spans="1:17" ht="25.5">
-      <c r="A83" s="63" t="s">
+      <c r="A83" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D83" s="48" t="s">
@@ -26385,9 +26391,9 @@
       <c r="Q83" s="38"/>
     </row>
     <row r="84" spans="1:17" ht="25.5">
-      <c r="A84" s="64"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="48" t="s">
         <v>60</v>
       </c>
@@ -26418,9 +26424,9 @@
       <c r="Q84" s="38"/>
     </row>
     <row r="85" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="48" t="s">
         <v>62</v>
       </c>
@@ -26470,13 +26476,13 @@
       <c r="Q86" s="58"/>
     </row>
     <row r="87" spans="1:17" ht="25.5">
-      <c r="A87" s="63" t="s">
+      <c r="A87" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="65" t="s">
+      <c r="B87" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="65" t="s">
+      <c r="C87" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="48" t="s">
@@ -26499,9 +26505,9 @@
       <c r="Q87" s="38"/>
     </row>
     <row r="88" spans="1:17" ht="25.5">
-      <c r="A88" s="64"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="48" t="s">
         <v>60</v>
       </c>
@@ -26532,9 +26538,9 @@
       <c r="Q88" s="38"/>
     </row>
     <row r="89" spans="1:17" ht="39" thickBot="1">
-      <c r="A89" s="64"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="48" t="s">
         <v>62</v>
       </c>
@@ -26578,13 +26584,13 @@
       <c r="Q90" s="58"/>
     </row>
     <row r="91" spans="1:17" ht="25.5">
-      <c r="A91" s="63" t="s">
+      <c r="A91" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="65" t="s">
+      <c r="B91" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="65" t="s">
+      <c r="C91" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="48" t="s">
@@ -26607,9 +26613,9 @@
       <c r="Q91" s="38"/>
     </row>
     <row r="92" spans="1:17" ht="25.5">
-      <c r="A92" s="64"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="48" t="s">
         <v>60</v>
       </c>
@@ -26640,9 +26646,9 @@
       <c r="Q92" s="38"/>
     </row>
     <row r="93" spans="1:17" ht="39" thickBot="1">
-      <c r="A93" s="64"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="48" t="s">
         <v>62</v>
       </c>
@@ -26688,13 +26694,13 @@
       <c r="Q94" s="58"/>
     </row>
     <row r="95" spans="1:17" ht="25.5">
-      <c r="A95" s="63" t="s">
+      <c r="A95" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="65" t="s">
+      <c r="C95" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D95" s="48" t="s">
@@ -26717,9 +26723,9 @@
       <c r="Q95" s="38"/>
     </row>
     <row r="96" spans="1:17" ht="25.5">
-      <c r="A96" s="64"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="48" t="s">
         <v>60</v>
       </c>
@@ -26750,9 +26756,9 @@
       <c r="Q96" s="38"/>
     </row>
     <row r="97" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A97" s="64"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="76"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="48" t="s">
         <v>62</v>
       </c>
@@ -26796,13 +26802,13 @@
       <c r="Q98" s="58"/>
     </row>
     <row r="99" spans="1:17" ht="25.5">
-      <c r="A99" s="63" t="s">
+      <c r="A99" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="65" t="s">
+      <c r="C99" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D99" s="48" t="s">
@@ -26825,9 +26831,9 @@
       <c r="Q99" s="38"/>
     </row>
     <row r="100" spans="1:17" ht="25.5">
-      <c r="A100" s="64"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
+      <c r="A100" s="75"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="48" t="s">
         <v>60</v>
       </c>
@@ -26858,9 +26864,9 @@
       <c r="Q100" s="38"/>
     </row>
     <row r="101" spans="1:17" ht="51.75" thickBot="1">
-      <c r="A101" s="64"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="48" t="s">
         <v>62</v>
       </c>
@@ -26911,6 +26917,82 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -26925,82 +27007,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9 F23:F25 F39:F41 F55:F57 F71:F73 F87:F89 M23:P25 M39:P41 M55:P57 M71:P73 M87:P89">
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
